--- a/Documents/L3-LKAS-Ports_v4.0_20220317.xlsx
+++ b/Documents/L3-LKAS-Ports_v4.0_20220317.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LKAS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0852EB-2238-4CF8-A416-19997CFB5ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2EB55-F157-4239-A3B6-A07D03985A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="4635" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LKAS Module Input" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="版本更新记录" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LKAS Module Input'!$A$2:$L$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LKAS Module Input'!$A$2:$L$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="310">
   <si>
     <t>Input/Output</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2196,9 +2196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FDMMve_d_ElkFcnConf</t>
-  </si>
-  <si>
     <t>IMAPve_d_ELK_Switch</t>
   </si>
   <si>
@@ -2481,11 +2478,6 @@
   </si>
   <si>
     <t>L3-LKAS-Ports_v4.0_20220317</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增目标物输入信号、新增ELK开关信号、新增路沿信号
-2.新增ELK指示灯、振动报警请求信号、ELK文字提醒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2619,6 +2611,53 @@
       </rPr>
       <t>有振动报警请求</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDMMve_d_ElkFcnConf</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELK开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EWWW to LKAS </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWWWve_y_BSD_LCWWorkingSt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWWWve_y_BSD_LCAWarning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWWWve_y_BSD_S_LCWWorkingSt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWWWve_y_BSD_S_LCAWarning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : LCW OFF
+1 : LCW ON</t>
+  </si>
+  <si>
+    <t>0：Inactive
+1：Warning level 1
+2：Warning level 2
+3：Invalid</t>
+  </si>
+  <si>
+    <t>1.新增目标物输入信号、新增ELK开关信号、新增路沿信号、新增BSD LCW信号:FDMMve_d_ElkFcnConf、IMAPve_d_ELK_Switch、IMAPve_d_obj_Num、IMAPva_d_obj_id、IMAPva_g_obj_pos_x、IMAPva_g_obj_pos_y、IMAPva_g_obj_vel_x、IMAPva_g_obj_vel_y、IMAPva_g_obj_acc_x、IMAPva_g_obj_acc_y、IMAPva_g_obj_pos_var_x、IMAPva_g_obj_pos_var_y、IMAPva_g_obj_pos_var_xy、IMAPva_g_obj_width、IMAPva_g_obj_length、IMAPva_d_obj_class、IMAPva_d_obj_lane、IMAPva_d_obj_status、IMAPva_d_obj_MotionStatus、IMAPve_g_Lrg_C0_BACK、IMAPve_g_Lrg_C1_BACK、IMAPve_g_Lrg_C2_BACK、IMAPve_g_Lrg_C3_BACK、IMAPve_g_Lrg_VR_Start_BACK、IMAPve_g_Lrg_VR_End_BACK、IMAPve_d_Lrg_Q_BACK、IMAPve_d_Lrg_TYPE_BACK、IMAPve_g_Rrg_C0_BACK、IMAPve_g_Rrg_C1_BACK、IMAPve_g_Rrg_C2_BACK、IMAPve_g_Rrg_C3_BACK、IMAPve_g_Rrg_VR_Start_BACK、IMAPve_g_Rrg_VR_End_BACK、IMAPve_d_Rrg_Q_BACK、IMAPve_d_Rrg_TYPE_BACK、EWWWve_y_BSD_LCWWorkingSt、EWWWve_y_BSD_LCAWarning、EWWWve_y_BSD_S_LCWWorkingSt、EWWWve_y_BSD__S_LCAWarning
+2.新增ELK指示灯、振动报警请求信号、ELK文字提醒：LKASve_y_ELK_Status_Display、LKASve_y_HapticAlarmReq、LKASve_y_HMI_ELKPopupMessage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2845,8 +2884,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3042,7 +3081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3193,11 +3232,26 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3209,7 +3263,27 @@
     <cellStyle name="常规 2 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规 3 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3930,13 +4004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
+      <selection pane="bottomRight" activeCell="A116" sqref="A116:A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4031,15 +4105,26 @@
       <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
+      <c r="A4" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="53">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>216</v>
+      </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
@@ -4138,15 +4223,28 @@
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
+      <c r="A8" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="53">
+        <f t="shared" ref="C8" si="1">LEN(B8)</f>
+        <v>19</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -5001,7 +5099,7 @@
         <v>143</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" ref="C37:C89" si="1">LEN(B37)</f>
+        <f t="shared" ref="C37:C89" si="2">LEN(B37)</f>
         <v>23</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -5030,7 +5128,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -5059,7 +5157,7 @@
         <v>150</v>
       </c>
       <c r="C39" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -5092,7 +5190,7 @@
         <v>158</v>
       </c>
       <c r="C40" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -5125,7 +5223,7 @@
         <v>236</v>
       </c>
       <c r="C41" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D41" s="49" t="s">
@@ -5156,7 +5254,7 @@
         <v>116</v>
       </c>
       <c r="C42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -5185,7 +5283,7 @@
         <v>129</v>
       </c>
       <c r="C43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -5218,7 +5316,7 @@
         <v>149</v>
       </c>
       <c r="C44" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -5251,7 +5349,7 @@
         <v>220</v>
       </c>
       <c r="C45" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D45" s="28" t="s">
@@ -5280,7 +5378,7 @@
         <v>221</v>
       </c>
       <c r="C46" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D46" s="28" t="s">
@@ -5309,7 +5407,7 @@
         <v>222</v>
       </c>
       <c r="C47" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D47" s="28" t="s">
@@ -5338,7 +5436,7 @@
         <v>113</v>
       </c>
       <c r="C48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -5367,7 +5465,7 @@
         <v>79</v>
       </c>
       <c r="C49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -5396,7 +5494,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -5418,26 +5516,26 @@
       <c r="L50" s="16"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="16">
-        <f t="shared" si="1"/>
+      <c r="A51" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="53">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F51" s="16" t="s">
+      <c r="D51" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -5445,26 +5543,26 @@
       <c r="L51" s="16"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="16">
-        <f t="shared" si="1"/>
+      <c r="A52" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="53">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F52" s="16" t="s">
+      <c r="D52" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="19"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
@@ -5472,26 +5570,26 @@
       <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" s="16">
-        <f t="shared" si="1"/>
+      <c r="A53" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F53" s="16" t="s">
+      <c r="D53" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
@@ -5499,26 +5597,26 @@
       <c r="L53" s="16"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" s="16">
-        <f t="shared" si="1"/>
+      <c r="A54" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="F54" s="16" t="s">
+      <c r="D54" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F54" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="19"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
@@ -5526,26 +5624,26 @@
       <c r="L54" s="16"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C55" s="16">
-        <f t="shared" si="1"/>
+      <c r="A55" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F55" s="16" t="s">
+      <c r="D55" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="19"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
@@ -5553,26 +5651,26 @@
       <c r="L55" s="16"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="16">
-        <f t="shared" si="1"/>
+      <c r="A56" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="D56" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="F56" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="19"/>
+      <c r="G56" s="54"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
@@ -5580,26 +5678,26 @@
       <c r="L56" s="16"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="16">
-        <f t="shared" si="1"/>
+      <c r="A57" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="D57" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="19"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
@@ -5607,26 +5705,26 @@
       <c r="L57" s="16"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C58" s="16">
-        <f t="shared" si="1"/>
+      <c r="A58" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" s="16" t="s">
+      <c r="D58" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="19"/>
+      <c r="G58" s="54"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
@@ -5634,26 +5732,26 @@
       <c r="L58" s="16"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" s="16">
-        <f t="shared" si="1"/>
+      <c r="A59" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="53">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D59" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F59" s="16" t="s">
+      <c r="D59" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
@@ -5661,26 +5759,26 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" s="16">
-        <f t="shared" si="1"/>
+      <c r="A60" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="53">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" s="16" t="s">
+      <c r="D60" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="19"/>
+      <c r="G60" s="54"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
@@ -5688,26 +5786,26 @@
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" s="16">
-        <f t="shared" si="1"/>
+      <c r="A61" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="53">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F61" s="16" t="s">
+      <c r="D61" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G61" s="19"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
@@ -5715,26 +5813,26 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="16">
-        <f t="shared" si="1"/>
+      <c r="A62" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="D62" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="19"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
@@ -5742,26 +5840,26 @@
       <c r="L62" s="16"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C63" s="16">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F63" s="16" t="s">
+      <c r="A63" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="53">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
@@ -5769,113 +5867,113 @@
       <c r="L63" s="16"/>
     </row>
     <row r="64" spans="1:12" ht="85.5">
-      <c r="A64" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" s="16">
-        <f t="shared" si="1"/>
+      <c r="A64" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="53">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F64" s="16" t="s">
+      <c r="D64" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="19"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
       <c r="K64" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L64" s="16"/>
     </row>
     <row r="65" spans="1:12" ht="99.75">
-      <c r="A65" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C65" s="16">
-        <f t="shared" si="1"/>
+      <c r="A65" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="53">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65" s="16" t="s">
+      <c r="D65" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="19"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
       <c r="K65" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12" ht="228">
-      <c r="A66" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C66" s="16">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="F66" s="16" t="s">
+      <c r="A66" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="53">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G66" s="19"/>
+      <c r="G66" s="54"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
       <c r="K66" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L66" s="16"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="16">
-        <f t="shared" si="1"/>
+      <c r="A67" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="53">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="F67" s="16" t="s">
+      <c r="D67" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F67" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="19"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
@@ -5890,7 +5988,7 @@
         <v>81</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -5917,7 +6015,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D69" s="19" t="s">
@@ -5944,7 +6042,7 @@
         <v>83</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D70" s="19" t="s">
@@ -5971,7 +6069,7 @@
         <v>84</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D71" s="19" t="s">
@@ -5998,7 +6096,7 @@
         <v>85</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D72" s="19" t="s">
@@ -6025,7 +6123,7 @@
         <v>86</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D73" s="19" t="s">
@@ -6052,7 +6150,7 @@
         <v>87</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -6083,7 +6181,7 @@
         <v>88</v>
       </c>
       <c r="C75" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D75" s="19" t="s">
@@ -6110,7 +6208,7 @@
         <v>89</v>
       </c>
       <c r="C76" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -6137,7 +6235,7 @@
         <v>90</v>
       </c>
       <c r="C77" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D77" s="19" t="s">
@@ -6164,7 +6262,7 @@
         <v>91</v>
       </c>
       <c r="C78" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -6191,7 +6289,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D79" s="19" t="s">
@@ -6218,7 +6316,7 @@
         <v>93</v>
       </c>
       <c r="C80" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D80" s="19" t="s">
@@ -6245,7 +6343,7 @@
         <v>94</v>
       </c>
       <c r="C81" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D81" s="19" t="s">
@@ -6272,7 +6370,7 @@
         <v>95</v>
       </c>
       <c r="C82" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -6303,7 +6401,7 @@
         <v>96</v>
       </c>
       <c r="C83" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D83" s="19" t="s">
@@ -6330,7 +6428,7 @@
         <v>97</v>
       </c>
       <c r="C84" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D84" s="19" t="s">
@@ -6357,7 +6455,7 @@
         <v>98</v>
       </c>
       <c r="C85" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D85" s="19" t="s">
@@ -6384,7 +6482,7 @@
         <v>99</v>
       </c>
       <c r="C86" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D86" s="19" t="s">
@@ -6411,7 +6509,7 @@
         <v>100</v>
       </c>
       <c r="C87" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D87" s="19" t="s">
@@ -6438,7 +6536,7 @@
         <v>101</v>
       </c>
       <c r="C88" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D88" s="19" t="s">
@@ -6465,7 +6563,7 @@
         <v>102</v>
       </c>
       <c r="C89" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D89" s="19" t="s">
@@ -6492,7 +6590,7 @@
         <v>103</v>
       </c>
       <c r="C90" s="16">
-        <f t="shared" ref="C90:C115" si="2">LEN(B90)</f>
+        <f t="shared" ref="C90:C119" si="3">LEN(B90)</f>
         <v>16</v>
       </c>
       <c r="D90" s="19" t="s">
@@ -6523,7 +6621,7 @@
         <v>104</v>
       </c>
       <c r="C91" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D91" s="19" t="s">
@@ -6550,7 +6648,7 @@
         <v>105</v>
       </c>
       <c r="C92" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D92" s="19" t="s">
@@ -6577,7 +6675,7 @@
         <v>106</v>
       </c>
       <c r="C93" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D93" s="19" t="s">
@@ -6604,7 +6702,7 @@
         <v>107</v>
       </c>
       <c r="C94" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D94" s="19" t="s">
@@ -6631,7 +6729,7 @@
         <v>108</v>
       </c>
       <c r="C95" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D95" s="19" t="s">
@@ -6658,7 +6756,7 @@
         <v>109</v>
       </c>
       <c r="C96" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D96" s="19" t="s">
@@ -6685,7 +6783,7 @@
         <v>110</v>
       </c>
       <c r="C97" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D97" s="19" t="s">
@@ -6712,7 +6810,7 @@
         <v>111</v>
       </c>
       <c r="C98" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D98" s="19" t="s">
@@ -6743,7 +6841,7 @@
         <v>112</v>
       </c>
       <c r="C99" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D99" s="19" t="s">
@@ -6763,24 +6861,24 @@
       <c r="L99" s="16"/>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C100" s="16">
-        <f t="shared" si="2"/>
+      <c r="A100" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D100" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16" t="s">
+      <c r="D100" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H100" s="19"/>
@@ -6790,24 +6888,24 @@
       <c r="L100" s="16"/>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C101" s="16">
-        <f t="shared" si="2"/>
+      <c r="A101" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D101" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16" t="s">
+      <c r="D101" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G101" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H101" s="19"/>
@@ -6817,24 +6915,24 @@
       <c r="L101" s="16"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C102" s="16">
-        <f t="shared" si="2"/>
+      <c r="A102" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B102" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D102" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16" t="s">
+      <c r="D102" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H102" s="19"/>
@@ -6844,24 +6942,24 @@
       <c r="L102" s="16"/>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C103" s="16">
-        <f t="shared" si="2"/>
+      <c r="A103" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D103" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16" t="s">
+      <c r="D103" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H103" s="19"/>
@@ -6871,24 +6969,24 @@
       <c r="L103" s="16"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C104" s="16">
-        <f t="shared" si="2"/>
+      <c r="A104" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="53">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="D104" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16" t="s">
+      <c r="D104" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G104" s="19" t="s">
+      <c r="G104" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H104" s="19"/>
@@ -6898,24 +6996,24 @@
       <c r="L104" s="16"/>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C105" s="16">
-        <f t="shared" si="2"/>
+      <c r="A105" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B105" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="53">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D105" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16" t="s">
+      <c r="D105" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="G105" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H105" s="19"/>
@@ -6925,24 +7023,24 @@
       <c r="L105" s="16"/>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C106" s="16">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16" t="s">
+      <c r="A106" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="53">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G106" s="19" t="s">
+      <c r="G106" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H106" s="19"/>
@@ -6952,53 +7050,53 @@
       <c r="L106" s="16"/>
     </row>
     <row r="107" spans="1:12" ht="199.5">
-      <c r="A107" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C107" s="16">
-        <f t="shared" si="2"/>
+      <c r="A107" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" s="53">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="D107" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16" t="s">
+      <c r="D107" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="19"/>
       <c r="K107" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L107" s="16"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C108" s="16">
-        <f t="shared" si="2"/>
+      <c r="A108" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D108" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16" t="s">
+      <c r="D108" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G108" s="19" t="s">
+      <c r="G108" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H108" s="19"/>
@@ -7008,24 +7106,24 @@
       <c r="L108" s="16"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C109" s="16">
-        <f t="shared" si="2"/>
+      <c r="A109" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D109" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16" t="s">
+      <c r="D109" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H109" s="19"/>
@@ -7035,24 +7133,24 @@
       <c r="L109" s="16"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C110" s="16">
-        <f t="shared" si="2"/>
+      <c r="A110" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D110" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16" t="s">
+      <c r="D110" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G110" s="19" t="s">
+      <c r="G110" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H110" s="19"/>
@@ -7062,24 +7160,24 @@
       <c r="L110" s="16"/>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C111" s="16">
-        <f t="shared" si="2"/>
+      <c r="A111" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C111" s="53">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D111" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16" t="s">
+      <c r="D111" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G111" s="19" t="s">
+      <c r="G111" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H111" s="19"/>
@@ -7089,24 +7187,24 @@
       <c r="L111" s="16"/>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C112" s="16">
-        <f t="shared" si="2"/>
+      <c r="A112" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="53">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="D112" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16" t="s">
+      <c r="D112" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G112" s="19" t="s">
+      <c r="G112" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H112" s="19"/>
@@ -7116,24 +7214,24 @@
       <c r="L112" s="16"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C113" s="16">
-        <f t="shared" si="2"/>
+      <c r="A113" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B113" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C113" s="53">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D113" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16" t="s">
+      <c r="D113" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H113" s="19"/>
@@ -7143,24 +7241,24 @@
       <c r="L113" s="16"/>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C114" s="16">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16" t="s">
+      <c r="A114" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="53">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G114" s="19" t="s">
+      <c r="G114" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H114" s="19"/>
@@ -7170,120 +7268,246 @@
       <c r="L114" s="16"/>
     </row>
     <row r="115" spans="1:12" ht="199.5">
-      <c r="A115" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="16">
-        <f t="shared" si="2"/>
+      <c r="A115" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C115" s="53">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="D115" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16" t="s">
+      <c r="D115" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="54" t="s">
         <v>19</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="19"/>
       <c r="K115" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L115" s="16"/>
     </row>
+    <row r="116" spans="1:12" ht="28.5">
+      <c r="A116" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="53">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D116" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="L116" s="16"/>
+    </row>
+    <row r="117" spans="1:12" ht="57">
+      <c r="A117" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C117" s="53">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D117" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G117" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L117" s="16"/>
+    </row>
+    <row r="118" spans="1:12" ht="28.5">
+      <c r="A118" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" s="53">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D118" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="L118" s="16"/>
+    </row>
+    <row r="119" spans="1:12" ht="57">
+      <c r="A119" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B119" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="C119" s="53">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D119" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G119" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L119" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:L99" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A2:L115" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C116:C1048576 C70:C99 C2:C67">
-    <cfRule type="cellIs" dxfId="40" priority="137" operator="greaterThan">
+  <conditionalFormatting sqref="C120:C1048576 C70:C99 C2:C3 C5:C67">
+    <cfRule type="cellIs" dxfId="42" priority="139" operator="greaterThan">
       <formula>31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="39" priority="73" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="74" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="75" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="75" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="76" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="77" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="36" priority="76" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="78" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B40">
-    <cfRule type="duplicateValues" dxfId="35" priority="69" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="70" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="71" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="71" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="72" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="73" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B40">
-    <cfRule type="duplicateValues" dxfId="32" priority="72" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="74" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="31" priority="65" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="66" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="67" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="67" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="68" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="69" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="28" priority="68" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="70" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="duplicateValues" dxfId="27" priority="57" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="58" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="59" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="59" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="60" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="61" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A23">
-    <cfRule type="duplicateValues" dxfId="24" priority="60" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="62" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A41">
-    <cfRule type="duplicateValues" dxfId="23" priority="53" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="54" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="55" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="55" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="56" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="57" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A41">
-    <cfRule type="duplicateValues" dxfId="20" priority="56" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="58" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="19" priority="49" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="50" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="51" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="51" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="52" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="53" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="16" priority="52" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="54" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 B20:B21">
-    <cfRule type="duplicateValues" dxfId="15" priority="169" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="170" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="171" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="171" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="172" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="173" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 B20:B21">
-    <cfRule type="duplicateValues" dxfId="12" priority="175" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="177" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A20:A21">
-    <cfRule type="duplicateValues" dxfId="11" priority="177" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="178" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="179" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="179" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="180" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="181" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A20:A21">
-    <cfRule type="duplicateValues" dxfId="8" priority="183" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="185" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="7" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="12" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="4" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C115">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C69">
+  <conditionalFormatting sqref="C116:C119">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>31</formula>
     </cfRule>
@@ -7297,8 +7521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7445,23 +7669,23 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="2:12" ht="49.5">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="41" t="s">
         <v>170</v>
       </c>
@@ -7538,25 +7762,25 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" ht="33">
-      <c r="B9" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -7631,25 +7855,25 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="2:12" ht="66">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -8016,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8125,7 +8349,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5">
+    <row r="8" spans="1:4" ht="185.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -8133,10 +8357,10 @@
         <v>20220317</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8160,5 +8384,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>